--- a/dist/document/dest/2020/10/doctors/ntth.xlsx
+++ b/dist/document/dest/2020/10/doctors/ntth.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>40</v>
       </c>
-      <c r="C2" s="1">
-        <v>138000</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>20</v>
       </c>
-      <c r="C3" s="1">
-        <v>341000</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>60</v>
       </c>
-      <c r="C4" s="1">
-        <v>189600</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>30</v>
       </c>
-      <c r="C5" s="1">
-        <v>323400</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>60</v>
       </c>
-      <c r="C6" s="1">
-        <v>324300</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>10</v>
       </c>
-      <c r="C7" s="1">
-        <v>36800</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -471,7 +453,7 @@
         <v>220</v>
       </c>
       <c r="C8" s="1">
-        <v>1353100</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/ntth.xlsx
+++ b/dist/document/dest/2020/10/doctors/ntth.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,66 +399,733 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
+        <v>AT Calci Plus (Calci lactat pentahydrat 500mg/10ml)</v>
       </c>
       <c r="B2" s="1">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="C2" s="1">
+        <v>77625</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Cefactum (Cefdinir 300mg)</v>
+        <v>Alphachymotrypsin BVP 8400</v>
       </c>
       <c r="B3" s="1">
-        <v>20</v>
+        <v>308</v>
+      </c>
+      <c r="C3" s="1">
+        <v>708400</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Cigenol</v>
+        <v>Alphachymotrypsin BVP 8400</v>
       </c>
       <c r="B4" s="1">
-        <v>60</v>
+        <v>180</v>
+      </c>
+      <c r="C4" s="1">
+        <v>414000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Ciheptal (Piracetam 1200mg) 10ml</v>
+        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>30</v>
+        <v>90</v>
+      </c>
+      <c r="C5" s="1">
+        <v>310500</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Seovigo (Ginkgo biloba 80mg)</v>
+        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>60</v>
+        <v>120</v>
+      </c>
+      <c r="C6" s="1">
+        <v>414000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Talmain (Talniflumate 370mg)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B7" s="1">
-        <v>10</v>
+        <v>134</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1031800</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
+      </c>
+      <c r="B8" s="1">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1">
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Be-Stedy 16 (Betahistine 16mg)</v>
+      </c>
+      <c r="B9" s="1">
+        <v>135</v>
+      </c>
+      <c r="C9" s="1">
+        <v>442125</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Bentarcin (Thymomodulin 80mg)</v>
+      </c>
+      <c r="B10" s="1">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Bentarcin (Thymomodulin 80mg)</v>
+      </c>
+      <c r="B11" s="1">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1">
+        <v>138000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
+      </c>
+      <c r="B12" s="1">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1">
+        <v>257600</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Binexmetone (Nabumetone 500mg)</v>
+      </c>
+      <c r="B13" s="1">
+        <v>90</v>
+      </c>
+      <c r="C13" s="1">
+        <v>742500</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Binexmetone (Nabumetone 500mg)</v>
+      </c>
+      <c r="B14" s="1">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1">
+        <v>346500</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Ciheptal (Piracetam 1200mg) 10ml</v>
+      </c>
+      <c r="B15" s="1">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>161700</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Ciheptal (Piracetam 1200mg) 10ml</v>
+      </c>
+      <c r="B16" s="1">
+        <v>105</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1131900</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Destor (Desloratadine 5mg)</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>21735</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Eldosin (Erdosteine 300mg)</v>
+      </c>
+      <c r="B18" s="1">
+        <v>60</v>
+      </c>
+      <c r="C18" s="1">
+        <v>396000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Eldosin (Erdosteine 300mg)</v>
+      </c>
+      <c r="B19" s="1">
+        <v>148</v>
+      </c>
+      <c r="C19" s="1">
+        <v>976800</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Esocon  20mg (Esomeprazole)</v>
+      </c>
+      <c r="B20" s="1">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1">
+        <v>522500</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Esocon  20mg (Esomeprazole)</v>
+      </c>
+      <c r="B21" s="1">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1">
+        <v>156750</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Fenafex (Fexofenadine 180mg)</v>
+      </c>
+      <c r="B22" s="1">
+        <v>37</v>
+      </c>
+      <c r="C22" s="1">
+        <v>178710</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Fenafex (Fexofenadine 180mg)</v>
+      </c>
+      <c r="B23" s="1">
+        <v>107</v>
+      </c>
+      <c r="C23" s="1">
+        <v>516810</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Fluostine (Flunarizin 5mg)</v>
+      </c>
+      <c r="B24" s="1">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1">
+        <v>179400</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Gabena (Olanzapine 10mg)</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>17250</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Imenir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B26" s="1">
+        <v>30</v>
+      </c>
+      <c r="C26" s="1">
+        <v>594000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Imenir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B27" s="1">
+        <v>128</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2534400</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45</v>
+      </c>
+      <c r="C28" s="1">
+        <v>160425</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+      </c>
+      <c r="B29" s="1">
+        <v>68</v>
+      </c>
+      <c r="C29" s="1">
+        <v>242420</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B30" s="1">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1">
+        <v>104720</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B31" s="1">
+        <v>17</v>
+      </c>
+      <c r="C31" s="1">
+        <v>317900</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B32" s="1">
+        <v>130</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2431000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Loxcip (Fexofenadine 180mg)</v>
+      </c>
+      <c r="B33" s="1">
+        <v>60</v>
+      </c>
+      <c r="C33" s="1">
+        <v>324300</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Loxcip (Fexofenadine 180mg)</v>
+      </c>
+      <c r="B34" s="1">
+        <v>89</v>
+      </c>
+      <c r="C34" s="1">
+        <v>481045</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Mecitil (Flunarizine 5.9mg)</v>
+      </c>
+      <c r="B35" s="1">
+        <v>150</v>
+      </c>
+      <c r="C35" s="1">
+        <v>483000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Mecitil (Flunarizine 5.9mg)</v>
+      </c>
+      <c r="B36" s="1">
+        <v>74</v>
+      </c>
+      <c r="C36" s="1">
+        <v>238280</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B37" s="1">
+        <v>59</v>
+      </c>
+      <c r="C37" s="1">
+        <v>176410</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Medrol 16mg (Methylprednisolone)</v>
+      </c>
+      <c r="B38" s="1">
+        <v>14</v>
+      </c>
+      <c r="C38" s="1">
+        <v>63140</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Medrol 4mg (Methylprednisolone)</v>
+      </c>
+      <c r="B39" s="1">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1">
+        <v>17780</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+      </c>
+      <c r="B40" s="1">
+        <v>14</v>
+      </c>
+      <c r="C40" s="1">
+        <v>17710</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Mexams (Montelukast 5mg)</v>
+      </c>
+      <c r="B41" s="1">
+        <v>44</v>
+      </c>
+      <c r="C41" s="1">
+        <v>246840</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Mezondin (Thymomodulin 80mg)</v>
+      </c>
+      <c r="B42" s="1">
+        <v>67</v>
+      </c>
+      <c r="C42" s="1">
+        <v>369840</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Mosad MT (Mosapride 5mg)</v>
+      </c>
+      <c r="B43" s="1">
+        <v>96</v>
+      </c>
+      <c r="C43" s="1">
+        <v>264960</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Nazoster (Mometasone furoate monohydrate)</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1444000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Nazoster (Mometasone furoate monohydrate)</v>
+      </c>
+      <c r="B45" s="1">
+        <v>11</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3176800</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B46" s="1">
+        <v>22</v>
+      </c>
+      <c r="C46" s="1">
+        <v>278300</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v xml:space="preserve">Oxy Già </v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Panadol (Paracetamol)</v>
+      </c>
+      <c r="B48" s="1">
+        <v>85</v>
+      </c>
+      <c r="C48" s="1">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Panadol (Paracetamol)</v>
+      </c>
+      <c r="B49" s="1">
+        <v>21</v>
+      </c>
+      <c r="C49" s="1">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Pantonix (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B50" s="1">
+        <v>28</v>
+      </c>
+      <c r="C50" s="1">
+        <v>184800</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Pantonix (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B51" s="1">
+        <v>59</v>
+      </c>
+      <c r="C51" s="1">
+        <v>389400</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Proginale (L-Cystine 500mg)</v>
+      </c>
+      <c r="B52" s="1">
+        <v>15</v>
+      </c>
+      <c r="C52" s="1">
+        <v>58650</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Ranilex (Mg(oxyd, aluminosilicat, alumin), ranitidin)</v>
+      </c>
+      <c r="B53" s="1">
+        <v>28</v>
+      </c>
+      <c r="C53" s="1">
+        <v>181720</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B54" s="1">
+        <v>120</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1108800</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B55" s="1">
+        <v>60</v>
+      </c>
+      <c r="C55" s="1">
+        <v>554400</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Sporal (Itraconazole 100mg)</v>
+      </c>
+      <c r="B56" s="1">
+        <v>7</v>
+      </c>
+      <c r="C56" s="1">
+        <v>146090</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Transamin 500mg (Tranexamic)</v>
+      </c>
+      <c r="B57" s="1">
+        <v>30</v>
+      </c>
+      <c r="C57" s="1">
+        <v>132600</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Trimebutine Gerda 200mg</v>
+      </c>
+      <c r="B58" s="1">
+        <v>30</v>
+      </c>
+      <c r="C58" s="1">
+        <v>262350</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Trimebutine Gerda 200mg</v>
+      </c>
+      <c r="B59" s="1">
+        <v>208</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1818960</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B60" s="1">
+        <v>167</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3012680</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B61" s="1">
+        <v>90</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1623600</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B62" s="1">
+        <v>30</v>
+      </c>
+      <c r="C62" s="1">
+        <v>561000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+      </c>
+      <c r="B63" s="1">
+        <v>59</v>
+      </c>
+      <c r="C63" s="1">
+        <v>284970</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Xypenat 75ml</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2</v>
+      </c>
+      <c r="C64" s="1">
+        <v>72600</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Xypenat 75ml</v>
+      </c>
+      <c r="B65" s="1">
+        <v>4</v>
+      </c>
+      <c r="C65" s="1">
+        <v>145200</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Zinecox (Cefditoren 200mg)</v>
+      </c>
+      <c r="B66" s="1">
+        <v>24</v>
+      </c>
+      <c r="C66" s="1">
+        <v>660000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B8" s="1">
-        <v>220</v>
-      </c>
-      <c r="C8" s="1">
-        <v>NaN</v>
+      <c r="B67" s="1">
+        <v>4031</v>
+      </c>
+      <c r="C67" s="1">
+        <v>34716795</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C67"/>
   </ignoredErrors>
 </worksheet>
 </file>